--- a/medicine/Psychotrope/Prince_of_Wales_(cocktail)/Prince_of_Wales_(cocktail).xlsx
+++ b/medicine/Psychotrope/Prince_of_Wales_(cocktail)/Prince_of_Wales_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un Prince of Wales (prince de Galles, en anglais) est un cocktail à base de whisky (ou de cognac), d'Angostura, de marasquin, d'ananas, et de champagne, baptisé du titre de prince de Galles du roi Édouard VII du Royaume-Uni. 
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cocktail est créé vers 1880 par le prince de Galles Albert Edward (1841-1910), prince héritier durant 60 ans de sa mère, la reine Victoria du Royaume-Uni (reine de 1837 à 1901), puis roi Édouard VII du Royaume-Uni de 1901 à 1910[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cocktail est créé vers 1880 par le prince de Galles Albert Edward (1841-1910), prince héritier durant 60 ans de sa mère, la reine Victoria du Royaume-Uni (reine de 1837 à 1901), puis roi Édouard VII du Royaume-Uni de 1901 à 1910,. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>4,5 cl de whisky de seigle (rye whisky, ou de cognac)
 1 sucre (ou cassonade)
@@ -579,9 +595,11 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imbiber le sucre avec l'Angostura au fond d'un verre à cocktail, puis ajouter la liqueur de marasquin et le whisky (ou du cognac), puis le morceau d'ananas. Allonger au champagne[3],[4],[5],[6], puis mélanger légèrement à la cuillère.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imbiber le sucre avec l'Angostura au fond d'un verre à cocktail, puis ajouter la liqueur de marasquin et le whisky (ou du cognac), puis le morceau d'ananas. Allonger au champagne puis mélanger légèrement à la cuillère.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chicago, Manhattan, Brooklyn, Old fashioned, Godfather, French Connection, Train bleu...</t>
         </is>
@@ -640,7 +660,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque britannique Twinings a créé plus tard un mélange blend de thé noir Prince de Galles (thé) pour le prince de Galles Édouard VIII (1894-1972, petit fils du précédent) qui autorise la marque à la commercialiser sous le nom de son titre  en 1921.
 </t>
